--- a/flagged_drivers.xlsx
+++ b/flagged_drivers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,79 +451,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1233</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>20122013</t>
+        </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>bus_driver.mp4</t>
+          <t>my_car_driver.mp4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2025-08-06 17:06:04</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Texting_While_Driving_How_Dangerous_is_it_-_CAR_and_DRIVER.mp4</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>2025-08-06 19:19:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Texting_While_Driving_How_Dangerous_is_it_-_CAR_and_DRIVER.mp4</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>2025-08-06 19:35:54</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Texting_While_Driving_How_Dangerous_is_it_-_CAR_and_DRIVER.mp4</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>2025-08-06 19:41:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Texting_While_Driving_How_Dangerous_is_it_-_CAR_and_DRIVER.mp4</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2025-08-06 19:50:49</t>
+          <t>2025-08-18 22:45:16</t>
         </is>
       </c>
     </row>
